--- a/Experiments/230619/data/compiled.xlsx
+++ b/Experiments/230619/data/compiled.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230619/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25034495-0EDE-A145-A122-C1F81BB73F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="22260" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thf" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="gly" sheetId="8" r:id="rId8"/>
     <sheet name="nadph" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="438">
   <si>
     <t>fdh_cm_nad</t>
   </si>
@@ -477,33 +483,15 @@
     <t>288.14</t>
   </si>
   <si>
-    <t>12339.37</t>
-  </si>
-  <si>
-    <t>12557.12</t>
-  </si>
-  <si>
     <t>720.02</t>
   </si>
   <si>
     <t>257.55</t>
   </si>
   <si>
-    <t>13588.25</t>
-  </si>
-  <si>
-    <t>9401.65</t>
-  </si>
-  <si>
-    <t>7474.83</t>
-  </si>
-  <si>
     <t>370589.51</t>
   </si>
   <si>
-    <t>6819.14</t>
-  </si>
-  <si>
     <t>439160.90</t>
   </si>
   <si>
@@ -513,12 +501,6 @@
     <t>416121.89</t>
   </si>
   <si>
-    <t>8265.85</t>
-  </si>
-  <si>
-    <t>9783.18</t>
-  </si>
-  <si>
     <t>15190.98</t>
   </si>
   <si>
@@ -549,12 +531,6 @@
     <t>352885.66</t>
   </si>
   <si>
-    <t>4601.26</t>
-  </si>
-  <si>
-    <t>6358.97</t>
-  </si>
-  <si>
     <t>447767.03</t>
   </si>
   <si>
@@ -568,30 +544,6 @@
   </si>
   <si>
     <t>10727.53</t>
-  </si>
-  <si>
-    <t>9880.66</t>
-  </si>
-  <si>
-    <t>8737.16</t>
-  </si>
-  <si>
-    <t>8633.40</t>
-  </si>
-  <si>
-    <t>16194.92</t>
-  </si>
-  <si>
-    <t>7461.36</t>
-  </si>
-  <si>
-    <t>6408.53</t>
-  </si>
-  <si>
-    <t>4710.35</t>
-  </si>
-  <si>
-    <t>10761.60</t>
   </si>
   <si>
     <t>196.74</t>
@@ -1395,8 +1347,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,13 +1411,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1503,7 +1463,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1537,6 +1497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1571,9 +1532,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1746,14 +1708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1770,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>27</v>
@@ -1826,7 +1788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +1887,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +1978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +1989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2041,7 +2003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2080,14 +2042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2095,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2106,7 +2068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +2090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2101,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2161,7 +2123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2183,7 +2145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2205,7 +2167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2227,7 +2189,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2249,7 +2211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2266,14 +2228,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2290,7 +2254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2312,7 +2276,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2323,10 +2287,10 @@
         <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>120</v>
@@ -2346,16 +2310,16 @@
         <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2366,13 +2330,13 @@
         <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2383,13 +2347,13 @@
         <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2397,7 +2361,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2408,7 +2372,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2394,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2438,16 +2402,10 @@
         <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2455,16 +2413,10 @@
         <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2472,10 +2424,10 @@
         <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -2483,10 +2435,10 @@
         <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2494,16 +2446,10 @@
         <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2511,16 +2457,10 @@
         <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2528,16 +2468,10 @@
         <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2545,10 +2479,10 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2556,16 +2490,10 @@
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2573,13 +2501,10 @@
         <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2587,13 +2512,10 @@
         <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2601,10 +2523,10 @@
         <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2612,16 +2534,10 @@
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2629,29 +2545,24 @@
         <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2659,108 +2570,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2769,14 +2680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2784,136 +2695,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2922,14 +2833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2946,328 +2857,328 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3276,14 +3187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -3321,307 +3232,307 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="G16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="G18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" t="s">
         <v>334</v>
       </c>
-      <c r="D19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" t="s">
         <v>351</v>
       </c>
-      <c r="F19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="M20" t="s">
         <v>352</v>
-      </c>
-      <c r="F20" t="s">
-        <v>359</v>
-      </c>
-      <c r="G20" t="s">
-        <v>364</v>
-      </c>
-      <c r="H20" t="s">
-        <v>365</v>
-      </c>
-      <c r="I20" t="s">
-        <v>366</v>
-      </c>
-      <c r="J20" t="s">
-        <v>367</v>
-      </c>
-      <c r="K20" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" t="s">
-        <v>369</v>
-      </c>
-      <c r="M20" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3630,14 +3541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -3672,214 +3583,214 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
         <v>388</v>
       </c>
-      <c r="D7" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" t="s">
-        <v>406</v>
-      </c>
       <c r="F7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8" t="s">
         <v>389</v>
       </c>
-      <c r="D8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" t="s">
         <v>392</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F13" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" t="s">
+        <v>398</v>
+      </c>
+      <c r="I13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" t="s">
         <v>401</v>
       </c>
-      <c r="E12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="L13" t="s">
         <v>402</v>
-      </c>
-      <c r="E13" t="s">
-        <v>410</v>
-      </c>
-      <c r="F13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" t="s">
-        <v>415</v>
-      </c>
-      <c r="H13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J13" t="s">
-        <v>418</v>
-      </c>
-      <c r="K13" t="s">
-        <v>419</v>
-      </c>
-      <c r="L13" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3888,14 +3799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -3912,190 +3825,191 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>